--- a/to do list.xlsx
+++ b/to do list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamyd\Documents\ma\bewijzenmap\periode.1.2\prog\M2BO-museum\M2BO-museum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{845F64B5-58CB-410D-A1BF-A331A1900D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479B4361-8AEE-4577-9FF5-C8905B726FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AC74FF2-BDB2-484A-8703-5766DCA46152}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>ontwikkel een marketing landing page</t>
   </si>
@@ -77,9 +77,6 @@
     <t>een speel scherm</t>
   </si>
   <si>
-    <t>een eind scherm</t>
-  </si>
-  <si>
     <t>2d graphics</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>XL</t>
+  </si>
+  <si>
+    <t>wireframe van onze site</t>
   </si>
 </sst>
 </file>
@@ -447,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDE7E5D-E565-4858-B703-C6B2CB697E50}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -474,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -498,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -522,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -530,63 +530,77 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/to do list.xlsx
+++ b/to do list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamyd\Documents\ma\bewijzenmap\periode.1.2\prog\M2BO-museum\M2BO-museum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479B4361-8AEE-4577-9FF5-C8905B726FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2190CB1-E2CD-4D1E-8734-53D313AD6B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AC74FF2-BDB2-484A-8703-5766DCA46152}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
-  <si>
-    <t>ontwikkel een marketing landing page</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>landing page in het engels</t>
   </si>
@@ -96,6 +93,30 @@
   </si>
   <si>
     <t>wireframe van onze site</t>
+  </si>
+  <si>
+    <t>user stories version</t>
+  </si>
+  <si>
+    <t>developer version</t>
+  </si>
+  <si>
+    <t>als gebruiker wil ik</t>
+  </si>
+  <si>
+    <t>zodat ik</t>
+  </si>
+  <si>
+    <t>op een nederlands flagje klikken</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zodat ik de pagina vertaal naar nederlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">op een engels flagje klikken </t>
+  </si>
+  <si>
+    <t>zodat ik de pagina vertaal naar het engels</t>
   </si>
 </sst>
 </file>
@@ -447,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDE7E5D-E565-4858-B703-C6B2CB697E50}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,149 +479,252 @@
     <col min="1" max="1" width="37.88671875" customWidth="1"/>
     <col min="2" max="2" width="26.77734375" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/to do list.xlsx
+++ b/to do list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamyd\Documents\ma\bewijzenmap\periode.1.2\prog\M2BO-museum\M2BO-museum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2190CB1-E2CD-4D1E-8734-53D313AD6B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256CF813-2D03-4C3A-AE67-1ADE6F0040FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AC74FF2-BDB2-484A-8703-5766DCA46152}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>landing page in het engels</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>zodat ik de pagina vertaal naar het engels</t>
+  </si>
+  <si>
+    <t>een tekst kunnen lezen over de geschiedenis</t>
+  </si>
+  <si>
+    <t>zodat ik meer informatie heb</t>
+  </si>
+  <si>
+    <t>zodat ik weet wat er tedoen is</t>
+  </si>
+  <si>
+    <t>kunne zien wat er tedoen is in het museum</t>
   </si>
 </sst>
 </file>
@@ -471,7 +483,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,8 +549,11 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -551,8 +566,11 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">

--- a/to do list.xlsx
+++ b/to do list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamyd\Documents\ma\bewijzenmap\periode.1.2\prog\M2BO-museum\M2BO-museum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256CF813-2D03-4C3A-AE67-1ADE6F0040FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C91122-BEE5-4324-824D-1400D664C3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AC74FF2-BDB2-484A-8703-5766DCA46152}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>landing page in het engels</t>
   </si>
@@ -129,6 +129,36 @@
   </si>
   <si>
     <t>kunne zien wat er tedoen is in het museum</t>
+  </si>
+  <si>
+    <t>de contact gegevens van de museum</t>
+  </si>
+  <si>
+    <t>zodat ik de meseum kan bereiken</t>
+  </si>
+  <si>
+    <t>de openings tijden kunnen zien</t>
+  </si>
+  <si>
+    <t>zodat ik weet wanneer de museum open is</t>
+  </si>
+  <si>
+    <t>reviews van bezoekers zien</t>
+  </si>
+  <si>
+    <t>zodat ik weet hoe andere het vonden</t>
+  </si>
+  <si>
+    <t>plaatjes zien van de museum</t>
+  </si>
+  <si>
+    <t>zodat ik kan zien hoe het museum er uit ziet</t>
+  </si>
+  <si>
+    <t>een spel kan spelen</t>
+  </si>
+  <si>
+    <t>zodat ik kan in zien hoe ik dit soort spellen vindt</t>
   </si>
 </sst>
 </file>
@@ -483,7 +513,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +523,7 @@
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="47.44140625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -583,8 +613,11 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -597,8 +630,11 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -611,8 +647,11 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -625,16 +664,22 @@
       <c r="D12" t="s">
         <v>21</v>
       </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>21</v>
       </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">

--- a/to do list.xlsx
+++ b/to do list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamyd\Documents\ma\bewijzenmap\periode.1.2\prog\M2BO-museum\M2BO-museum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C91122-BEE5-4324-824D-1400D664C3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98602B9-282B-4F88-AA1B-7E384769AC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AC74FF2-BDB2-484A-8703-5766DCA46152}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>landing page in het engels</t>
   </si>
@@ -513,7 +513,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,6 +535,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
@@ -689,66 +697,28 @@
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -756,7 +726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -764,7 +734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -772,12 +742,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -785,7 +755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>

--- a/to do list.xlsx
+++ b/to do list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamyd\Documents\ma\bewijzenmap\periode.1.2\prog\M2BO-museum\M2BO-museum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98602B9-282B-4F88-AA1B-7E384769AC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5DD796-3C2E-43AA-B668-75CB8F2D0F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AC74FF2-BDB2-484A-8703-5766DCA46152}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>landing page in het engels</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>zodat ik kan in zien hoe ik dit soort spellen vindt</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>gamekast</t>
+  </si>
+  <si>
+    <t>button to scroll images</t>
+  </si>
+  <si>
+    <t>button om menu in teklappen</t>
+  </si>
+  <si>
+    <t>tekstvlak</t>
   </si>
 </sst>
 </file>
@@ -513,7 +531,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,7 +716,53 @@
         <v>15</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -766,6 +830,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100496381E8FD64E34F8642F04DD0A992FB" ma:contentTypeVersion="5" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7838334a808a102b3a305bd4bfb662e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2d46c59d-e229-4293-89f9-2bb8fd2b602e" xmlns:ns4="96ed63d9-bd1b-4470-b991-ff99813fa414" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2f0e9444405f7d4388037e5350705fa" ns3:_="" ns4:_="">
     <xsd:import namespace="2d46c59d-e229-4293-89f9-2bb8fd2b602e"/>
@@ -936,22 +1015,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC379F74-AA1E-4956-9742-ABCE35679D71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="96ed63d9-bd1b-4470-b991-ff99813fa414"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="2d46c59d-e229-4293-89f9-2bb8fd2b602e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3840EF15-8323-4F5B-90F9-C7C1ACF848A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF7705E4-BFFF-4D46-BD75-B243EADEE100}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -968,29 +1057,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3840EF15-8323-4F5B-90F9-C7C1ACF848A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC379F74-AA1E-4956-9742-ABCE35679D71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="96ed63d9-bd1b-4470-b991-ff99813fa414"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="2d46c59d-e229-4293-89f9-2bb8fd2b602e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>